--- a/Python/data/foreignvisitors.xlsx
+++ b/Python/data/foreignvisitors.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Desktop\GitClone\B-Trip\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Desktop\db입력\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,54 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <x:si>
-    <x:t>2022년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3월</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>Oct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nov</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,54 +866,57 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="M14" activeCellId="0" sqref="M14:M14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="A6" activeCellId="0" sqref="A6:A6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.00390625" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="J1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
-      <x:c r="A2" s="1" t="s">
-        <x:v>2</x:v>
+      <x:c r="A2" s="1">
+        <x:v>2020</x:v>
       </x:c>
       <x:c r="B2" s="1">
         <x:v>165734</x:v>
@@ -965,8 +956,8 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="1">
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="B3" s="1">
         <x:v>9555</x:v>
@@ -1006,8 +997,8 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
-      <x:c r="A4" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A4" s="1">
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="B4" s="1">
         <x:v>13828</x:v>
@@ -1047,8 +1038,8 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="1">
+        <x:v>2023</x:v>
       </x:c>
       <x:c r="B5" s="1">
         <x:v>63333</x:v>
@@ -1088,7 +1079,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>